--- a/tests/artifact/script/DeliveryNote.xlsx
+++ b/tests/artifact/script/DeliveryNote.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="828">
   <si>
     <t>target</t>
   </si>
@@ -2359,6 +2359,12 @@
   </si>
   <si>
     <t>gkusertoken,gkToken</t>
+  </si>
+  <si>
+    <t>gkToken</t>
+  </si>
+  <si>
+    <t>Test Invalid gk Token</t>
   </si>
   <si>
     <t>Negative (Unauthorized) - /DeliveryNote/delchal</t>
@@ -2405,9 +2411,6 @@
   </si>
   <si>
     <t>Set headers for Authorization</t>
-  </si>
-  <si>
-    <t>gkToken</t>
   </si>
   <si>
     <t>Positive - /DeliveryNote/delchal</t>
@@ -26578,10 +26581,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O203"/>
+  <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -26722,13 +26725,13 @@
       <c r="B5" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="31" t="s">
         <v>763</v>
       </c>
       <c r="F5" s="27"/>
@@ -26742,48 +26745,48 @@
       <c r="N5" s="22"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B6" s="20" t="s">
+    <row r="6" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>764</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="F6" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B7" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>471</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="34"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>768</v>
       </c>
+      <c r="G7" s="27"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
@@ -26793,22 +26796,22 @@
       <c r="N7" s="44"/>
       <c r="O7" s="34"/>
     </row>
-    <row r="8" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="8" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="28" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>471</v>
+        <v>197</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
         <v>770</v>
       </c>
-      <c r="G8" s="27"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="29"/>
@@ -26818,19 +26821,21 @@
       <c r="N8" s="44"/>
       <c r="O8" s="34"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:15">
+    <row r="9" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27" t="s">
+        <v>772</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
@@ -26848,14 +26853,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F10" s="27" t="s">
         <v>773</v>
       </c>
+      <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -26866,49 +26869,45 @@
       <c r="N10" s="44"/>
       <c r="O10" s="34"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="11" s="3" customFormat="1" spans="1:15">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>49</v>
+        <v>447</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>774</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="20"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>776</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>754</v>
+      <c r="F12" s="27" t="s">
+        <v>773</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -26921,8 +26920,12 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>778</v>
+      </c>
       <c r="C13" s="25" t="s">
         <v>35</v>
       </c>
@@ -26930,10 +26933,10 @@
         <v>263</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -26947,22 +26950,20 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
-      <c r="B14" s="20" t="s">
-        <v>778</v>
-      </c>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
-        <v>768</v>
-      </c>
+      <c r="D14" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
@@ -26974,20 +26975,22 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="B15" s="20" t="s">
+        <v>779</v>
+      </c>
       <c r="C15" s="28" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>471</v>
+        <v>197</v>
       </c>
       <c r="E15" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="G15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
@@ -26997,19 +27000,21 @@
       <c r="N15" s="22"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:15">
+    <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27" t="s">
+        <v>780</v>
+      </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -27027,14 +27032,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>447</v>
+        <v>536</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>780</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -27045,20 +27048,20 @@
       <c r="N17" s="22"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="18" s="1" customFormat="1" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>49</v>
+        <v>447</v>
       </c>
       <c r="E18" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>781</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>771</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -27072,19 +27075,19 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="19"/>
-      <c r="B19" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="F19" s="27"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>782</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>773</v>
+      </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -27095,63 +27098,63 @@
       <c r="N19" s="22"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="30" t="s">
-        <v>782</v>
-      </c>
+    <row r="20" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="19"/>
       <c r="B20" s="24" t="s">
-        <v>783</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="46"/>
-    </row>
-    <row r="21" s="4" customFormat="1" ht="17" customHeight="1" spans="1:15">
-      <c r="A21" s="30"/>
+        <v>762</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="19"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="46"/>
+        <v>764</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>784</v>
+      </c>
       <c r="C22" s="25" t="s">
         <v>5</v>
       </c>
@@ -27159,10 +27162,10 @@
         <v>471</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="G22" s="26"/>
       <c r="H22" s="31"/>
@@ -27174,20 +27177,22 @@
       <c r="N22" s="47"/>
       <c r="O22" s="46"/>
     </row>
-    <row r="23" s="4" customFormat="1" spans="1:15">
+    <row r="23" s="4" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A23" s="30"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>536</v>
+        <v>197</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="G23" s="26" t="s">
+        <v>770</v>
+      </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
@@ -27197,20 +27202,20 @@
       <c r="N23" s="47"/>
       <c r="O23" s="46"/>
     </row>
-    <row r="24" s="4" customFormat="1" spans="1:15">
+    <row r="24" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="30"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E24" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>772</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>773</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="31"/>
@@ -27222,74 +27227,68 @@
       <c r="N24" s="47"/>
       <c r="O24" s="46"/>
     </row>
-    <row r="25" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="25" s="4" customFormat="1" spans="1:15">
       <c r="A25" s="30"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="32">
-        <v>2</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>771</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="F25" s="26"/>
       <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="30" t="s">
-        <v>785</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>776</v>
-      </c>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="46"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:15">
+      <c r="A26" s="30"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="25" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="24"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="46"/>
     </row>
     <row r="27" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="30"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>777</v>
+        <v>49</v>
+      </c>
+      <c r="E27" s="32">
+        <v>2</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
@@ -27302,23 +27301,25 @@
       <c r="O27" s="24"/>
     </row>
     <row r="28" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="30"/>
+      <c r="A28" s="30" t="s">
+        <v>786</v>
+      </c>
       <c r="B28" s="24" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26" t="s">
-        <v>768</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
       <c r="J28" s="26"/>
@@ -27332,16 +27333,16 @@
       <c r="A29" s="30"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>471</v>
+        <v>263</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="26"/>
@@ -27353,20 +27354,24 @@
       <c r="N29" s="49"/>
       <c r="O29" s="24"/>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:15">
+    <row r="30" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="30"/>
-      <c r="B30" s="24"/>
+      <c r="B30" s="24" t="s">
+        <v>787</v>
+      </c>
       <c r="C30" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>536</v>
+        <v>197</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>770</v>
+      </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
@@ -27376,17 +27381,17 @@
       <c r="N30" s="49"/>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:15">
+    <row r="31" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="30"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>780</v>
@@ -27401,21 +27406,19 @@
       <c r="N31" s="49"/>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="32" s="5" customFormat="1" spans="1:15">
       <c r="A32" s="30"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>49</v>
+        <v>536</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>781</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>771</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -27426,113 +27429,113 @@
       <c r="N32" s="49"/>
       <c r="O32" s="24"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="24" t="s">
+    <row r="33" s="5" customFormat="1" spans="1:15">
+      <c r="A33" s="30"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="24"/>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="30"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="24"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C35" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D35" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E35" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="20"/>
-    </row>
-    <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="19" t="s">
-        <v>787</v>
-      </c>
-      <c r="B34" s="20" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="20"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="19" t="s">
         <v>788</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F34" s="27" t="s">
+      <c r="B37" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="45"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="34"/>
-    </row>
-    <row r="35" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="44"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="34"/>
-    </row>
-    <row r="36" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>770</v>
-      </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="34"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:15">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
       <c r="C37" s="28" t="s">
         <v>5</v>
       </c>
@@ -27540,10 +27543,10 @@
         <v>471</v>
       </c>
       <c r="E37" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>790</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>791</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="29"/>
@@ -27555,22 +27558,22 @@
       <c r="N37" s="44"/>
       <c r="O37" s="34"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:15">
+    <row r="38" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="28" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>471</v>
+        <v>197</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>792</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="G38" s="27"/>
+        <v>769</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
@@ -27580,19 +27583,21 @@
       <c r="N38" s="44"/>
       <c r="O38" s="34"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:15">
+    <row r="39" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>536</v>
+        <v>471</v>
       </c>
       <c r="E39" s="27" t="s">
         <v>771</v>
       </c>
-      <c r="F39" s="27"/>
+      <c r="F39" s="27" t="s">
+        <v>772</v>
+      </c>
       <c r="G39" s="27"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -27610,13 +27615,13 @@
         <v>5</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="29"/>
@@ -27628,103 +27633,95 @@
       <c r="N40" s="44"/>
       <c r="O40" s="34"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="41" s="3" customFormat="1" spans="1:15">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>49</v>
+        <v>471</v>
       </c>
       <c r="E41" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="20"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A42" s="19" t="s">
-        <v>794</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="20"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A43" s="19"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>758</v>
+      <c r="F43" s="27" t="s">
+        <v>775</v>
       </c>
       <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="20"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="34"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="19"/>
-      <c r="B44" s="20" t="s">
-        <v>795</v>
-      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="28" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27" t="s">
-        <v>768</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="27"/>
@@ -27734,72 +27731,78 @@
       <c r="N44" s="22"/>
       <c r="O44" s="20"/>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:15">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>790</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>796</v>
-      </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="34"/>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:15">
-      <c r="A46" s="33"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E46" s="29" t="s">
-        <v>792</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>797</v>
-      </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="34"/>
+    <row r="45" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A45" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="20"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="20"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>796</v>
+      </c>
       <c r="C47" s="28" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>471</v>
+        <v>197</v>
       </c>
       <c r="E47" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="F47" s="27" t="s">
-        <v>779</v>
-      </c>
-      <c r="G47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
@@ -27809,53 +27812,55 @@
       <c r="N47" s="22"/>
       <c r="O47" s="20"/>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:15">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="28" t="s">
+    <row r="48" s="3" customFormat="1" spans="1:15">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="20"/>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:15">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="28" t="s">
+      <c r="D48" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>797</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:15">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F49" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="20"/>
+      <c r="D49" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>793</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>798</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="34"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="19"/>
@@ -27864,13 +27869,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="36">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>771</v>
       </c>
       <c r="F50" s="27" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -27882,71 +27887,69 @@
       <c r="N50" s="22"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:15">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="37">
-        <v>45031</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>798</v>
-      </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="44"/>
-      <c r="M51" s="45"/>
-      <c r="N51" s="44"/>
-      <c r="O51" s="34"/>
-    </row>
-    <row r="52" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35" t="s">
+      <c r="D51" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="20"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:15">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>799</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>800</v>
-      </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="45"/>
-      <c r="N52" s="44"/>
-      <c r="O52" s="34"/>
+      <c r="D52" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="20"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="19"/>
-      <c r="B53" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="F53" s="27"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="36">
+        <v>0</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>773</v>
+      </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -27958,25 +27961,21 @@
       <c r="O53" s="20"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A54" s="19" t="s">
-        <v>801</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C54" s="28" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>803</v>
-      </c>
-      <c r="G54" s="27"/>
+      <c r="D54" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="37">
+        <v>45031</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
@@ -27986,22 +27985,22 @@
       <c r="N54" s="44"/>
       <c r="O54" s="34"/>
     </row>
-    <row r="55" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27" t="s">
-        <v>768</v>
-      </c>
+    <row r="55" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>800</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>801</v>
+      </c>
+      <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
@@ -28011,68 +28010,74 @@
       <c r="N55" s="44"/>
       <c r="O55" s="34"/>
     </row>
-    <row r="56" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>769</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>770</v>
-      </c>
+      <c r="B56" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="F56" s="27"/>
       <c r="G56" s="27"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="45"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="34"/>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:15">
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="20"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="F57" s="27"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>765</v>
+      </c>
       <c r="G57" s="27"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="44"/>
-      <c r="M57" s="45"/>
-      <c r="N57" s="44"/>
-      <c r="O57" s="34"/>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:15">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="20"/>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>803</v>
+      </c>
       <c r="C58" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="27" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>773</v>
+        <v>804</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="29"/>
@@ -28084,111 +28089,103 @@
       <c r="N58" s="44"/>
       <c r="O58" s="34"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="59" s="3" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>769</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27" t="s">
+        <v>770</v>
+      </c>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="34"/>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="27" t="s">
+      <c r="D60" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>771</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>772</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="34"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:15">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="34"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:15">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E62" s="27" t="s">
         <v>774</v>
       </c>
-      <c r="F59" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="20"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A60" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>776</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="21"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="20"/>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A61" s="19"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="20"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="20"/>
+      <c r="F62" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="34"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="19"/>
@@ -28197,13 +28194,13 @@
         <v>5</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -28215,44 +28212,50 @@
       <c r="N63" s="22"/>
       <c r="O63" s="20"/>
     </row>
-    <row r="64" s="3" customFormat="1" spans="1:15">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="F64" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="34"/>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:15">
+    <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="19" t="s">
+        <v>805</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>778</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="20"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>536</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>771</v>
-      </c>
-      <c r="F65" s="27"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>758</v>
+      </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
@@ -28263,22 +28266,24 @@
       <c r="N65" s="22"/>
       <c r="O65" s="20"/>
     </row>
-    <row r="66" s="1" customFormat="1" spans="1:15">
+    <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>806</v>
+      </c>
       <c r="C66" s="28" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>772</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>780</v>
-      </c>
-      <c r="G66" s="27"/>
+        <v>769</v>
+      </c>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="27"/>
@@ -28295,13 +28300,13 @@
         <v>5</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="36">
-        <v>0</v>
+        <v>471</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>771</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -28313,17 +28318,17 @@
       <c r="N67" s="22"/>
       <c r="O67" s="20"/>
     </row>
-    <row r="68" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="68" s="3" customFormat="1" spans="1:15">
       <c r="A68" s="33"/>
-      <c r="B68" s="46"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="38">
-        <v>10</v>
+        <v>471</v>
+      </c>
+      <c r="E68" s="29" t="s">
+        <v>807</v>
       </c>
       <c r="F68" s="29" t="s">
         <v>808</v>
@@ -28338,19 +28343,17 @@
       <c r="N68" s="44"/>
       <c r="O68" s="34"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="69" s="1" customFormat="1" spans="1:15">
       <c r="A69" s="19"/>
-      <c r="B69" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>763</v>
+      <c r="B69" s="20"/>
+      <c r="C69" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>773</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
@@ -28363,277 +28366,273 @@
       <c r="N69" s="22"/>
       <c r="O69" s="20"/>
     </row>
-    <row r="70" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A70" s="30" t="s">
+    <row r="70" s="1" customFormat="1" spans="1:15">
+      <c r="A70" s="19"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>774</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>781</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="20"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E71" s="36">
+        <v>0</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>773</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="20"/>
+    </row>
+    <row r="72" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="33"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E72" s="38">
+        <v>10</v>
+      </c>
+      <c r="F72" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>765</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="46"/>
-    </row>
-    <row r="71" s="4" customFormat="1" ht="17" customHeight="1" spans="1:15">
-      <c r="A71" s="30"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="25" t="s">
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="34"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="19"/>
+      <c r="B73" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C73" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="46"/>
-    </row>
-    <row r="72" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A72" s="30"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="F72" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="G72" s="26"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="48"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="46"/>
-    </row>
-    <row r="73" s="4" customFormat="1" spans="1:15">
-      <c r="A73" s="30"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="47"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="47"/>
-      <c r="O73" s="46"/>
-    </row>
-    <row r="74" s="4" customFormat="1" spans="1:15">
-      <c r="A74" s="30"/>
+      <c r="D73" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="20"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="19"/>
       <c r="B74" s="24"/>
       <c r="C74" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>773</v>
-      </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="47"/>
-      <c r="M74" s="48"/>
-      <c r="N74" s="47"/>
-      <c r="O74" s="46"/>
-    </row>
-    <row r="75" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A75" s="30"/>
-      <c r="B75" s="24"/>
+        <v>765</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="20"/>
+    </row>
+    <row r="75" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>811</v>
+      </c>
       <c r="C75" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" s="32">
-        <v>2</v>
+        <v>471</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>767</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="24"/>
-    </row>
-    <row r="76" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A76" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>776</v>
-      </c>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="31"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="48"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="46"/>
+    </row>
+    <row r="76" s="4" customFormat="1" ht="17" customHeight="1" spans="1:15">
+      <c r="A76" s="30"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="50"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="24"/>
-    </row>
-    <row r="77" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+        <v>769</v>
+      </c>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="46"/>
+    </row>
+    <row r="77" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="30"/>
       <c r="B77" s="24"/>
       <c r="C77" s="25" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="49"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="49"/>
-      <c r="O77" s="24"/>
-    </row>
-    <row r="78" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="31"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="48"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="46"/>
+    </row>
+    <row r="78" s="4" customFormat="1" spans="1:15">
       <c r="A78" s="30"/>
-      <c r="B78" s="24" t="s">
-        <v>813</v>
-      </c>
+      <c r="B78" s="24"/>
       <c r="C78" s="25" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>197</v>
+        <v>536</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="F78" s="26"/>
-      <c r="G78" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="49"/>
-      <c r="O78" s="24"/>
-    </row>
-    <row r="79" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="G78" s="26"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="48"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="46"/>
+    </row>
+    <row r="79" s="4" customFormat="1" spans="1:15">
       <c r="A79" s="30"/>
       <c r="B79" s="24"/>
       <c r="C79" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="50"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="24"/>
-    </row>
-    <row r="80" s="5" customFormat="1" spans="1:15">
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="48"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="46"/>
+    </row>
+    <row r="80" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="30"/>
       <c r="B80" s="24"/>
       <c r="C80" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="F80" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="E80" s="32">
+        <v>2</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>773</v>
+      </c>
       <c r="G80" s="26"/>
       <c r="H80" s="26"/>
       <c r="I80" s="26"/>
@@ -28644,20 +28643,24 @@
       <c r="N80" s="49"/>
       <c r="O80" s="24"/>
     </row>
-    <row r="81" s="5" customFormat="1" spans="1:15">
-      <c r="A81" s="30"/>
-      <c r="B81" s="24"/>
+    <row r="81" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="30" t="s">
+        <v>813</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>778</v>
+      </c>
       <c r="C81" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
@@ -28673,16 +28676,16 @@
       <c r="A82" s="30"/>
       <c r="B82" s="24"/>
       <c r="C82" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
@@ -28694,374 +28697,370 @@
       <c r="N82" s="49"/>
       <c r="O82" s="24"/>
     </row>
-    <row r="83" s="3" customFormat="1" spans="1:15">
-      <c r="A83" s="33"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="35" t="s">
+    <row r="83" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="30"/>
+      <c r="B83" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="24"/>
+    </row>
+    <row r="84" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="30"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="29" t="s">
+      <c r="D84" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="E83" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="G83" s="29"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="29"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="45"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="34"/>
-    </row>
-    <row r="84" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="35" t="s">
+      <c r="E84" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="50"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="24"/>
+    </row>
+    <row r="85" s="5" customFormat="1" spans="1:15">
+      <c r="A85" s="30"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D85" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="E84" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="44"/>
-      <c r="M84" s="45"/>
-      <c r="N84" s="44"/>
-      <c r="O84" s="34"/>
-    </row>
-    <row r="85" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="19"/>
-      <c r="B85" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>107</v>
-      </c>
       <c r="E85" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="21"/>
-      <c r="N85" s="22"/>
-      <c r="O85" s="20"/>
-    </row>
-    <row r="86" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A86" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>816</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="50"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="24"/>
+    </row>
+    <row r="86" s="5" customFormat="1" spans="1:15">
+      <c r="A86" s="30"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>817</v>
+        <v>781</v>
       </c>
       <c r="G86" s="26"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="48"/>
-      <c r="N86" s="47"/>
-      <c r="O86" s="46"/>
-    </row>
-    <row r="87" s="4" customFormat="1" ht="17" customHeight="1" spans="1:15">
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="50"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="24"/>
+    </row>
+    <row r="87" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="30"/>
       <c r="B87" s="24"/>
       <c r="C87" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="F87" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="24"/>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:15">
+      <c r="A88" s="33"/>
+      <c r="B88" s="34"/>
+      <c r="C88" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="E88" s="29" t="s">
+        <v>807</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>815</v>
+      </c>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="34"/>
+    </row>
+    <row r="89" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="33"/>
+      <c r="B89" s="34"/>
+      <c r="C89" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="E89" s="29" t="s">
+        <v>809</v>
+      </c>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="34"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="19"/>
+      <c r="B90" s="24" t="s">
+        <v>762</v>
+      </c>
+      <c r="C90" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="48"/>
-      <c r="N87" s="47"/>
-      <c r="O87" s="46"/>
-    </row>
-    <row r="88" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A88" s="30"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="F88" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="G88" s="26"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="48"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="46"/>
-    </row>
-    <row r="89" s="4" customFormat="1" spans="1:15">
-      <c r="A89" s="30"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="F89" s="26"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
-      <c r="K89" s="46"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="48"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="46"/>
-    </row>
-    <row r="90" s="4" customFormat="1" ht="130" customHeight="1" spans="1:15">
-      <c r="A90" s="30"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="F90" s="61" t="s">
-        <v>773</v>
-      </c>
-      <c r="G90" s="26"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="48"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="46"/>
-    </row>
-    <row r="91" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A91" s="30"/>
+      <c r="D90" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>763</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="20"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A91" s="19"/>
       <c r="B91" s="24"/>
       <c r="C91" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="20"/>
+    </row>
+    <row r="92" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>817</v>
+      </c>
+      <c r="C92" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E91" s="32">
-        <v>2</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="G91" s="26"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="49"/>
-      <c r="O91" s="24"/>
-    </row>
-    <row r="92" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A92" s="30" t="s">
+      <c r="D92" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="E92" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="F92" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="B92" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>754</v>
-      </c>
       <c r="G92" s="26"/>
-      <c r="H92" s="26"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="49"/>
-      <c r="O92" s="24"/>
-    </row>
-    <row r="93" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="46"/>
+    </row>
+    <row r="93" s="4" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A93" s="30"/>
       <c r="B93" s="24"/>
       <c r="C93" s="25" t="s">
         <v>35</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>777</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="G93" s="26"/>
-      <c r="H93" s="26"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="49"/>
-      <c r="O93" s="24"/>
-    </row>
-    <row r="94" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+        <v>769</v>
+      </c>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="46"/>
+    </row>
+    <row r="94" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A94" s="30"/>
-      <c r="B94" s="24" t="s">
-        <v>819</v>
-      </c>
+      <c r="B94" s="24"/>
       <c r="C94" s="25" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>197</v>
+        <v>471</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>767</v>
-      </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="26" t="s">
-        <v>768</v>
-      </c>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="49"/>
-      <c r="O94" s="24"/>
-    </row>
-    <row r="95" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+        <v>771</v>
+      </c>
+      <c r="F94" s="26" t="s">
+        <v>772</v>
+      </c>
+      <c r="G94" s="26"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="31"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="46"/>
+    </row>
+    <row r="95" s="4" customFormat="1" spans="1:15">
       <c r="A95" s="30"/>
       <c r="B95" s="24"/>
       <c r="C95" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D95" s="26" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="F95" s="26" t="s">
-        <v>779</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="F95" s="26"/>
       <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="50"/>
-      <c r="N95" s="49"/>
-      <c r="O95" s="24"/>
-    </row>
-    <row r="96" s="5" customFormat="1" spans="1:15">
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="31"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="46"/>
+    </row>
+    <row r="96" s="4" customFormat="1" ht="130" customHeight="1" spans="1:15">
       <c r="A96" s="30"/>
       <c r="B96" s="24"/>
       <c r="C96" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>536</v>
+        <v>447</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="F96" s="26"/>
+        <v>774</v>
+      </c>
+      <c r="F96" s="61" t="s">
+        <v>775</v>
+      </c>
       <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="49"/>
-      <c r="O96" s="24"/>
-    </row>
-    <row r="97" s="5" customFormat="1" spans="1:15">
+      <c r="H96" s="31"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="31"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="46"/>
+    </row>
+    <row r="97" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A97" s="30"/>
       <c r="B97" s="24"/>
       <c r="C97" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>772</v>
+        <v>49</v>
+      </c>
+      <c r="E97" s="32">
+        <v>2</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G97" s="26"/>
       <c r="H97" s="26"/>
@@ -29074,19 +29073,23 @@
       <c r="O97" s="24"/>
     </row>
     <row r="98" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A98" s="30"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="30" t="s">
+        <v>819</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>778</v>
+      </c>
       <c r="C98" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>49</v>
+        <v>263</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>781</v>
+        <v>752</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="G98" s="26"/>
       <c r="H98" s="26"/>
@@ -29098,107 +29101,155 @@
       <c r="N98" s="49"/>
       <c r="O98" s="24"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A99" s="19"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="21"/>
-      <c r="N99" s="22"/>
-      <c r="O99" s="20"/>
-    </row>
-    <row r="100" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A100" s="19"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="21"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="20"/>
-    </row>
-    <row r="101" s="1" customFormat="1" spans="1:15">
-      <c r="A101" s="19"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="21"/>
-      <c r="N101" s="22"/>
-      <c r="O101" s="20"/>
-    </row>
-    <row r="102" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A102" s="19"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="21"/>
-      <c r="N102" s="22"/>
-      <c r="O102" s="20"/>
-    </row>
-    <row r="103" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A103" s="19"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="22"/>
-      <c r="O103" s="20"/>
-    </row>
-    <row r="104" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A104" s="19"/>
+    <row r="99" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="30"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D99" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="49"/>
+      <c r="M99" s="50"/>
+      <c r="N99" s="49"/>
+      <c r="O99" s="24"/>
+    </row>
+    <row r="100" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="30"/>
+      <c r="B100" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="49"/>
+      <c r="M100" s="50"/>
+      <c r="N100" s="49"/>
+      <c r="O100" s="24"/>
+    </row>
+    <row r="101" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="30"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>780</v>
+      </c>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="49"/>
+      <c r="M101" s="50"/>
+      <c r="N101" s="49"/>
+      <c r="O101" s="24"/>
+    </row>
+    <row r="102" s="5" customFormat="1" spans="1:15">
+      <c r="A102" s="30"/>
+      <c r="B102" s="24"/>
+      <c r="C102" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="49"/>
+      <c r="O102" s="24"/>
+    </row>
+    <row r="103" s="5" customFormat="1" spans="1:15">
+      <c r="A103" s="30"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="50"/>
+      <c r="N103" s="49"/>
+      <c r="O103" s="24"/>
+    </row>
+    <row r="104" s="5" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="30"/>
       <c r="B104" s="24"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="22"/>
-      <c r="M104" s="21"/>
-      <c r="N104" s="22"/>
-      <c r="O104" s="20"/>
+      <c r="C104" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>773</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="50"/>
+      <c r="N104" s="49"/>
+      <c r="O104" s="24"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A105" s="19"/>
@@ -29271,10 +29322,10 @@
     <row r="109" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
       <c r="G109" s="27"/>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
@@ -29287,10 +29338,11 @@
     </row>
     <row r="110" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A110" s="19"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="27"/>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
@@ -29318,7 +29370,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="20"/>
     </row>
-    <row r="112" s="1" customFormat="1" spans="1:15">
+    <row r="112" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="28"/>
@@ -29335,7 +29387,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="20"/>
     </row>
-    <row r="113" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="113" s="1" customFormat="1" spans="1:15">
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="28"/>
@@ -29354,10 +29406,10 @@
     </row>
     <row r="114" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A114" s="19"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="28"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
       <c r="H114" s="27"/>
@@ -29388,7 +29440,6 @@
     </row>
     <row r="116" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A116" s="19"/>
-      <c r="B116" s="20"/>
       <c r="C116" s="28"/>
       <c r="D116" s="27"/>
       <c r="E116" s="27"/>
@@ -29456,11 +29507,11 @@
     </row>
     <row r="120" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A120" s="19"/>
-      <c r="B120" s="20"/>
+      <c r="B120" s="24"/>
       <c r="C120" s="25"/>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
+      <c r="F120" s="27"/>
       <c r="G120" s="27"/>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
@@ -29473,11 +29524,11 @@
     </row>
     <row r="121" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A121" s="19"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
       <c r="G121" s="27"/>
       <c r="H121" s="27"/>
       <c r="I121" s="27"/>
@@ -29558,11 +29609,11 @@
     </row>
     <row r="126" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A126" s="19"/>
-      <c r="B126" s="24"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="25"/>
       <c r="D126" s="26"/>
       <c r="E126" s="26"/>
-      <c r="F126" s="27"/>
+      <c r="F126" s="26"/>
       <c r="G126" s="27"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
@@ -29575,11 +29626,11 @@
     </row>
     <row r="127" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A127" s="19"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="24"/>
       <c r="C127" s="25"/>
       <c r="D127" s="26"/>
       <c r="E127" s="26"/>
-      <c r="F127" s="27"/>
+      <c r="F127" s="26"/>
       <c r="G127" s="27"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
@@ -29593,9 +29644,9 @@
     <row r="128" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
+      <c r="C128" s="28"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
       <c r="F128" s="27"/>
       <c r="G128" s="27"/>
       <c r="H128" s="27"/>
@@ -29609,10 +29660,10 @@
     </row>
     <row r="129" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A129" s="19"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="26"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="28"/>
+      <c r="D129" s="27"/>
+      <c r="E129" s="27"/>
       <c r="F129" s="27"/>
       <c r="G129" s="27"/>
       <c r="H129" s="27"/>
@@ -29624,12 +29675,12 @@
       <c r="N129" s="22"/>
       <c r="O129" s="20"/>
     </row>
-    <row r="130" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="130" s="1" customFormat="1" spans="1:15">
       <c r="A130" s="19"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="51"/>
-      <c r="E130" s="26"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="28"/>
+      <c r="D130" s="27"/>
+      <c r="E130" s="27"/>
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
       <c r="H130" s="27"/>
@@ -29641,9 +29692,11 @@
       <c r="N130" s="22"/>
       <c r="O130" s="20"/>
     </row>
-    <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="3:15">
+    <row r="131" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="28"/>
-      <c r="D131" s="52"/>
+      <c r="D131" s="27"/>
       <c r="E131" s="27"/>
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
@@ -29658,10 +29711,10 @@
     </row>
     <row r="132" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="27"/>
+      <c r="B132" s="24"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
       <c r="H132" s="27"/>
@@ -29676,9 +29729,9 @@
     <row r="133" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A133" s="19"/>
       <c r="B133" s="20"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="52"/>
-      <c r="E133" s="27"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
       <c r="F133" s="27"/>
       <c r="G133" s="27"/>
       <c r="H133" s="27"/>
@@ -29690,12 +29743,12 @@
       <c r="N133" s="22"/>
       <c r="O133" s="20"/>
     </row>
-    <row r="134" s="1" customFormat="1" spans="1:15">
+    <row r="134" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A134" s="19"/>
       <c r="B134" s="20"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="27"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
       <c r="F134" s="27"/>
       <c r="G134" s="27"/>
       <c r="H134" s="27"/>
@@ -29709,10 +29762,10 @@
     </row>
     <row r="135" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A135" s="19"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="52"/>
-      <c r="E135" s="27"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="51"/>
+      <c r="E135" s="26"/>
       <c r="F135" s="27"/>
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
@@ -29726,10 +29779,10 @@
     </row>
     <row r="136" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A136" s="19"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="27"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="26"/>
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
       <c r="H136" s="27"/>
@@ -29741,13 +29794,11 @@
       <c r="N136" s="22"/>
       <c r="O136" s="20"/>
     </row>
-    <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A137" s="19"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
+    <row r="137" s="1" customFormat="1" ht="23" customHeight="1" spans="3:15">
+      <c r="C137" s="28"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="27"/>
       <c r="G137" s="27"/>
       <c r="H137" s="27"/>
       <c r="I137" s="27"/>
@@ -29760,11 +29811,11 @@
     </row>
     <row r="138" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A138" s="19"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="28"/>
+      <c r="D138" s="52"/>
+      <c r="E138" s="27"/>
+      <c r="F138" s="27"/>
       <c r="G138" s="27"/>
       <c r="H138" s="27"/>
       <c r="I138" s="27"/>
@@ -29778,9 +29829,9 @@
     <row r="139" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A139" s="19"/>
       <c r="B139" s="20"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="27"/>
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
       <c r="H139" s="27"/>
@@ -29792,12 +29843,12 @@
       <c r="N139" s="22"/>
       <c r="O139" s="20"/>
     </row>
-    <row r="140" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="140" s="1" customFormat="1" spans="1:15">
       <c r="A140" s="19"/>
       <c r="B140" s="20"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="52"/>
+      <c r="E140" s="27"/>
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
       <c r="H140" s="27"/>
@@ -29811,10 +29862,10 @@
     </row>
     <row r="141" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A141" s="19"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="26"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="27"/>
       <c r="F141" s="27"/>
       <c r="G141" s="27"/>
       <c r="H141" s="27"/>
@@ -29828,10 +29879,10 @@
     </row>
     <row r="142" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A142" s="19"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="26"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="52"/>
+      <c r="E142" s="27"/>
       <c r="F142" s="27"/>
       <c r="G142" s="27"/>
       <c r="H142" s="27"/>
@@ -29843,11 +29894,13 @@
       <c r="N142" s="22"/>
       <c r="O142" s="20"/>
     </row>
-    <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="3:15">
-      <c r="C143" s="28"/>
-      <c r="D143" s="52"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
+    <row r="143" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="19"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
       <c r="G143" s="27"/>
       <c r="H143" s="27"/>
       <c r="I143" s="27"/>
@@ -29860,10 +29913,11 @@
     </row>
     <row r="144" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A144" s="19"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="27"/>
-      <c r="F144" s="27"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
+      <c r="F144" s="26"/>
       <c r="G144" s="27"/>
       <c r="H144" s="27"/>
       <c r="I144" s="27"/>
@@ -29877,9 +29931,9 @@
     <row r="145" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A145" s="19"/>
       <c r="B145" s="20"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="52"/>
-      <c r="E145" s="27"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
       <c r="F145" s="27"/>
       <c r="G145" s="27"/>
       <c r="H145" s="27"/>
@@ -29891,12 +29945,12 @@
       <c r="N145" s="22"/>
       <c r="O145" s="20"/>
     </row>
-    <row r="146" s="1" customFormat="1" spans="1:15">
+    <row r="146" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A146" s="19"/>
       <c r="B146" s="20"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="27"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
       <c r="F146" s="27"/>
       <c r="G146" s="27"/>
       <c r="H146" s="27"/>
@@ -29910,10 +29964,10 @@
     </row>
     <row r="147" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A147" s="19"/>
-      <c r="B147" s="20"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="27"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="51"/>
+      <c r="E147" s="26"/>
       <c r="F147" s="27"/>
       <c r="G147" s="27"/>
       <c r="H147" s="27"/>
@@ -29927,10 +29981,10 @@
     </row>
     <row r="148" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A148" s="19"/>
-      <c r="B148" s="20"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="27"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="51"/>
+      <c r="E148" s="26"/>
       <c r="F148" s="27"/>
       <c r="G148" s="27"/>
       <c r="H148" s="27"/>
@@ -29942,8 +29996,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="20"/>
     </row>
-    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A149" s="19"/>
+    <row r="149" s="1" customFormat="1" ht="23" customHeight="1" spans="3:15">
       <c r="C149" s="28"/>
       <c r="D149" s="52"/>
       <c r="E149" s="27"/>
@@ -29960,7 +30013,6 @@
     </row>
     <row r="150" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A150" s="19"/>
-      <c r="B150" s="20"/>
       <c r="C150" s="28"/>
       <c r="D150" s="52"/>
       <c r="E150" s="27"/>
@@ -29975,7 +30027,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="20"/>
     </row>
-    <row r="151" s="1" customFormat="1" spans="1:15">
+    <row r="151" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A151" s="19"/>
       <c r="B151" s="20"/>
       <c r="C151" s="28"/>
@@ -29992,7 +30044,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="20"/>
     </row>
-    <row r="152" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="152" s="1" customFormat="1" spans="1:15">
       <c r="A152" s="19"/>
       <c r="B152" s="20"/>
       <c r="C152" s="28"/>
@@ -30026,11 +30078,27 @@
       <c r="N153" s="22"/>
       <c r="O153" s="20"/>
     </row>
+    <row r="154" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="19"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="52"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="21"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="20"/>
+    </row>
     <row r="155" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A155" s="19"/>
-      <c r="B155" s="20"/>
       <c r="C155" s="28"/>
-      <c r="D155" s="27"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="27"/>
       <c r="F155" s="27"/>
       <c r="G155" s="27"/>
@@ -30047,7 +30115,7 @@
       <c r="A156" s="19"/>
       <c r="B156" s="20"/>
       <c r="C156" s="28"/>
-      <c r="D156" s="27"/>
+      <c r="D156" s="52"/>
       <c r="E156" s="27"/>
       <c r="F156" s="27"/>
       <c r="G156" s="27"/>
@@ -30060,11 +30128,11 @@
       <c r="N156" s="22"/>
       <c r="O156" s="20"/>
     </row>
-    <row r="157" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="157" s="1" customFormat="1" spans="1:15">
       <c r="A157" s="19"/>
       <c r="B157" s="20"/>
       <c r="C157" s="28"/>
-      <c r="D157" s="27"/>
+      <c r="D157" s="52"/>
       <c r="E157" s="27"/>
       <c r="F157" s="27"/>
       <c r="G157" s="27"/>
@@ -30081,7 +30149,7 @@
       <c r="A158" s="19"/>
       <c r="B158" s="20"/>
       <c r="C158" s="28"/>
-      <c r="D158" s="27"/>
+      <c r="D158" s="52"/>
       <c r="E158" s="27"/>
       <c r="F158" s="27"/>
       <c r="G158" s="27"/>
@@ -30098,7 +30166,7 @@
       <c r="A159" s="19"/>
       <c r="B159" s="20"/>
       <c r="C159" s="28"/>
-      <c r="D159" s="27"/>
+      <c r="D159" s="52"/>
       <c r="E159" s="27"/>
       <c r="F159" s="27"/>
       <c r="G159" s="27"/>
@@ -30110,23 +30178,6 @@
       <c r="M159" s="21"/>
       <c r="N159" s="22"/>
       <c r="O159" s="20"/>
-    </row>
-    <row r="160" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A160" s="19"/>
-      <c r="B160" s="20"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="22"/>
-      <c r="M160" s="21"/>
-      <c r="N160" s="22"/>
-      <c r="O160" s="20"/>
     </row>
     <row r="161" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A161" s="19"/>
@@ -30859,6 +30910,108 @@
       <c r="N203" s="22"/>
       <c r="O203" s="20"/>
     </row>
+    <row r="204" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A204" s="19"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
+      <c r="K204" s="20"/>
+      <c r="L204" s="22"/>
+      <c r="M204" s="21"/>
+      <c r="N204" s="22"/>
+      <c r="O204" s="20"/>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A205" s="19"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="28"/>
+      <c r="D205" s="27"/>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27"/>
+      <c r="G205" s="27"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="27"/>
+      <c r="K205" s="20"/>
+      <c r="L205" s="22"/>
+      <c r="M205" s="21"/>
+      <c r="N205" s="22"/>
+      <c r="O205" s="20"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A206" s="19"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="28"/>
+      <c r="D206" s="27"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="27"/>
+      <c r="K206" s="20"/>
+      <c r="L206" s="22"/>
+      <c r="M206" s="21"/>
+      <c r="N206" s="22"/>
+      <c r="O206" s="20"/>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A207" s="19"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="28"/>
+      <c r="D207" s="27"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="27"/>
+      <c r="K207" s="20"/>
+      <c r="L207" s="22"/>
+      <c r="M207" s="21"/>
+      <c r="N207" s="22"/>
+      <c r="O207" s="20"/>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A208" s="19"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="28"/>
+      <c r="D208" s="27"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="27"/>
+      <c r="K208" s="20"/>
+      <c r="L208" s="22"/>
+      <c r="M208" s="21"/>
+      <c r="N208" s="22"/>
+      <c r="O208" s="20"/>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A209" s="19"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="28"/>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="27"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="22"/>
+      <c r="M209" s="21"/>
+      <c r="N209" s="22"/>
+      <c r="O209" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -30866,422 +31019,422 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N46">
+    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88">
+    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N89">
+    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N89,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="146" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N89,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N89,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N99">
+    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N110">
+    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N110,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N110,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N110,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127">
+    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N127,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N127,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N127,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N144">
+    <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N144,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N144,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N144,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N149">
+    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N149,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N149,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N149,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N6">
+    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="2" priority="187" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N7:N13">
+    <cfRule type="beginsWith" dxfId="2" priority="193" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N7,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="188" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="194" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N7,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="189" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="195" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N7,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="N15:N19">
+    <cfRule type="beginsWith" dxfId="2" priority="190" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="191" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="192" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N21">
     <cfRule type="beginsWith" dxfId="2" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
-    <cfRule type="beginsWith" dxfId="2" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
-    <cfRule type="beginsWith" dxfId="2" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
-    <cfRule type="beginsWith" dxfId="2" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69">
-    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N77">
-    <cfRule type="beginsWith" dxfId="0" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="beginsWith" dxfId="0" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84">
-    <cfRule type="beginsWith" dxfId="2" priority="145" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N84,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="146" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N84,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="147" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N84,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
-    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N85,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N85,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N85,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N93">
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N93,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N93,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N93,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N104">
-    <cfRule type="beginsWith" dxfId="2" priority="124" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N104,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N104,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="126" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N104,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N121">
-    <cfRule type="beginsWith" dxfId="2" priority="112" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="114" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N138">
-    <cfRule type="beginsWith" dxfId="2" priority="103" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N138,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N138,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="105" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N138,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N143">
-    <cfRule type="beginsWith" dxfId="2" priority="94" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N143,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N143,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="96" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N143,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N12">
-    <cfRule type="beginsWith" dxfId="2" priority="193" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="194" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="195" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N18">
-    <cfRule type="beginsWith" dxfId="2" priority="190" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="191" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="192" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N26">
-    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N32">
+  <conditionalFormatting sqref="N22:N28">
+    <cfRule type="beginsWith" dxfId="2" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30:N34">
     <cfRule type="beginsWith" dxfId="2" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N42">
+  <conditionalFormatting sqref="N35:N36">
+    <cfRule type="beginsWith" dxfId="2" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37:N45">
     <cfRule type="beginsWith" dxfId="2" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45:N46">
+  <conditionalFormatting sqref="N48:N49">
     <cfRule type="beginsWith" dxfId="2" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N60">
+  <conditionalFormatting sqref="N56:N57">
+    <cfRule type="beginsWith" dxfId="2" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58:N64">
     <cfRule type="beginsWith" dxfId="2" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62:N68">
+  <conditionalFormatting sqref="N66:N72">
     <cfRule type="beginsWith" dxfId="2" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70:N76">
-    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N73:N74">
+    <cfRule type="beginsWith" dxfId="2" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75:N81">
+    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N78:N82">
-    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N83:N87">
+    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86:N92">
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N90:N91">
+    <cfRule type="beginsWith" dxfId="2" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N90,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N90,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N90,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N92:N98">
+    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N92,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N92,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N92,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N94:N98">
-    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N94,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N100:N104">
+    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N100,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N94,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N100,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N94,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N100,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N105:N109">
+  <conditionalFormatting sqref="N111:N115">
     <cfRule type="beginsWith" dxfId="2" priority="127" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N111,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N111,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="129" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N111,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N110:N113">
+  <conditionalFormatting sqref="N116:N119">
     <cfRule type="beginsWith" dxfId="2" priority="121" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N110,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N116,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N110,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N116,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="123" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N110,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N116,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N122:N125">
+  <conditionalFormatting sqref="N128:N131">
     <cfRule type="beginsWith" dxfId="2" priority="115" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N122,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N128,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N122,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N128,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="117" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N122,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N128,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N131:N137">
+  <conditionalFormatting sqref="N137:N143">
     <cfRule type="beginsWith" dxfId="2" priority="109" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N131,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N137,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N131,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N137,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="111" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N131,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N137,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N139:N142">
+  <conditionalFormatting sqref="N145:N148">
     <cfRule type="beginsWith" dxfId="2" priority="97" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N139,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N145,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N139,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N145,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="99" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N139,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N145,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N144:N148">
+  <conditionalFormatting sqref="N150:N154">
     <cfRule type="beginsWith" dxfId="2" priority="106" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N144,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N150,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N144,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N150,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="108" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N144,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N150,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N149:N153">
+  <conditionalFormatting sqref="N155:N159">
     <cfRule type="beginsWith" dxfId="2" priority="100" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N149,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N155,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N149,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N155,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="102" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N149,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N155,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N155:N203">
+  <conditionalFormatting sqref="N161:N209">
     <cfRule type="beginsWith" dxfId="2" priority="202" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N155,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N161,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="203" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N155,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N161,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="204" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N155,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N161,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
@@ -31295,44 +31448,44 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44 N47:N52">
+  <conditionalFormatting sqref="N47 N50:N55">
     <cfRule type="beginsWith" dxfId="2" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N99:N103 N114">
+  <conditionalFormatting sqref="N105:N109 N120">
     <cfRule type="beginsWith" dxfId="2" priority="130" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N99,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N105,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N99,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N105,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="132" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N99,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N105,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N115:N120 N126:N130">
+  <conditionalFormatting sqref="N121:N126 N132:N136">
     <cfRule type="beginsWith" dxfId="2" priority="118" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N115,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N121,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N115,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N121,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="120" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N115,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N121,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C39 C40 C41 C42 C43 C44 C47 C48 C49 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C65 C66 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C131 C132 C133 C134 C135 C136 C137 C138 C139 C140 C143 C144 C145 C146 C147 C148 C149 C150 C151 C152 C153 C36:C38 C45:C46 C50:C52 C63:C64 C67:C68 C129:C130 C141:C142 C155:C203">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C42 C43 C44 C45 C46 C47 C50 C51 C52 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C69 C70 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C101 C102 C103 C104 C105 C106 C107 C108 C109 C110 C111 C112 C113 C114 C115 C116 C117 C118 C119 C120 C121 C122 C123 C124 C125 C126 C127 C128 C129 C130 C131 C132 C133 C134 C137 C138 C139 C140 C141 C142 C143 C144 C145 C146 C149 C150 C151 C152 C153 C154 C155 C156 C157 C158 C159 C39:C41 C48:C49 C53:C55 C67:C68 C71:C72 C135:C136 C147:C148 C161:C209">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D39 D40 D41 D42 D43 D44 D47 D48 D49 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D65 D66 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D131 D132 D133 D134 D135 D136 D137 D138 D139 D140 D143 D144 D145 D146 D147 D148 D149 D150 D151 D152 D153 D36:D38 D45:D46 D50:D52 D63:D64 D67:D68 D129:D130 D141:D142 D155:D203">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D42 D43 D44 D45 D46 D47 D50 D51 D52 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D69 D70 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98 D99 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D117 D118 D119 D120 D121 D122 D123 D124 D125 D126 D127 D128 D129 D130 D131 D132 D133 D134 D137 D138 D139 D140 D141 D142 D143 D144 D145 D146 D149 D150 D151 D152 D153 D154 D155 D156 D157 D158 D159 D39:D41 D48:D49 D53:D55 D67:D68 D71:D72 D135:D136 D147:D148 D161:D209">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -31485,7 +31638,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>762</v>
@@ -31512,7 +31665,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B6" s="20" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>5</v>
@@ -31521,10 +31674,10 @@
         <v>471</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="29"/>
@@ -31546,10 +31699,10 @@
         <v>471</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -31571,13 +31724,13 @@
         <v>356</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -31598,10 +31751,10 @@
         <v>471</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="29"/>
@@ -31623,7 +31776,7 @@
         <v>536</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -31646,10 +31799,10 @@
         <v>447</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="29"/>
@@ -31671,10 +31824,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -31688,10 +31841,10 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="19" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>35</v>
@@ -31725,7 +31878,7 @@
         <v>263</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>758</v>
@@ -31750,10 +31903,10 @@
         <v>471</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -31768,7 +31921,7 @@
     <row r="16" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C16" s="28" t="s">
         <v>35</v>
@@ -31777,13 +31930,13 @@
         <v>197</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
@@ -31804,10 +31957,10 @@
         <v>471</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -31829,7 +31982,7 @@
         <v>536</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -31852,10 +32005,10 @@
         <v>447</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -31877,10 +32030,10 @@
         <v>49</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -35462,7 +35615,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B6" s="20" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>5</v>
@@ -35471,10 +35624,10 @@
         <v>471</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="29"/>
@@ -35496,11 +35649,11 @@
         <v>197</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -35521,10 +35674,10 @@
         <v>471</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="29"/>
@@ -35546,7 +35699,7 @@
         <v>536</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -35569,10 +35722,10 @@
         <v>447</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="29"/>
@@ -35594,10 +35747,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -35611,10 +35764,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>35</v>
@@ -35648,7 +35801,7 @@
         <v>263</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>758</v>
@@ -35666,7 +35819,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>35</v>
@@ -35675,11 +35828,11 @@
         <v>197</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -35700,10 +35853,10 @@
         <v>471</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -35725,7 +35878,7 @@
         <v>536</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -35748,10 +35901,10 @@
         <v>447</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -35773,10 +35926,10 @@
         <v>49</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -39559,7 +39712,7 @@
     </row>
     <row r="6" s="3" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B6" s="20" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>5</v>
@@ -39568,10 +39721,10 @@
         <v>471</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="29"/>
@@ -39593,11 +39746,11 @@
         <v>197</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -39618,10 +39771,10 @@
         <v>471</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="29"/>
@@ -39643,7 +39796,7 @@
         <v>536</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -39666,10 +39819,10 @@
         <v>447</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="29"/>
@@ -39691,10 +39844,10 @@
         <v>49</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -39708,10 +39861,10 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>35</v>
@@ -39745,7 +39898,7 @@
         <v>263</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>758</v>
@@ -39763,7 +39916,7 @@
     <row r="14" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="19"/>
       <c r="B14" s="20" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C14" s="28" t="s">
         <v>35</v>
@@ -39772,11 +39925,11 @@
         <v>197</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -39797,10 +39950,10 @@
         <v>471</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -39822,7 +39975,7 @@
         <v>536</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -39845,10 +39998,10 @@
         <v>447</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -39870,10 +40023,10 @@
         <v>49</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>

--- a/tests/artifact/script/DeliveryNote.xlsx
+++ b/tests/artifact/script/DeliveryNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="830">
   <si>
     <t>target</t>
   </si>
@@ -2352,7 +2352,7 @@
     <t>your name</t>
   </si>
   <si>
-    <t>Negative - /log</t>
+    <t>Negative - /log/</t>
   </si>
   <si>
     <t>gkToken</t>
@@ -2401,7 +2401,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Positive - /log</t>
+    <t>Positive - /log/</t>
   </si>
   <si>
     <t>Set headers for Authorization</t>
@@ -2597,7 +2597,13 @@
     <t>Positive - Create DeliveryNote</t>
   </si>
   <si>
+    <t>Negative - /log</t>
+  </si>
+  <si>
     <t>${api.baseUrl}delchal/${delete_dcid}</t>
+  </si>
+  <si>
+    <t>Positive - /log</t>
   </si>
 </sst>
 </file>
@@ -2605,11 +2611,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3188,16 +3194,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3451,7 +3457,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -26583,8 +26589,8 @@
   <sheetPr/>
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -35463,7 +35469,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>761</v>
+        <v>827</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>814</v>
@@ -35502,7 +35508,7 @@
         <v>765</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="29"/>
@@ -35639,7 +35645,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>776</v>
@@ -39560,7 +39566,7 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>761</v>
+        <v>827</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>814</v>
@@ -39736,7 +39742,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>775</v>
+        <v>829</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>776</v>

--- a/tests/artifact/script/DeliveryNote.xlsx
+++ b/tests/artifact/script/DeliveryNote.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="975">
   <si>
     <t>target</t>
   </si>
@@ -2805,6 +2805,9 @@
     <t>Negative - /log</t>
   </si>
   <si>
+    <t>Negative /DeliveryNote/delchal</t>
+  </si>
+  <si>
     <t>Get type of request</t>
   </si>
   <si>
@@ -2836,7 +2839,7 @@
     <t>Negative - /delchal/last</t>
   </si>
   <si>
-    <t>Negative (Unauthorized) - /DeliveryNote/delchal/last</t>
+    <t>Negative  /DeliveryNote/delchal/last</t>
   </si>
   <si>
     <t>${api.baseUrl}delchal/last?status=${status}</t>
@@ -2863,7 +2866,7 @@
     <t>Negative - /delchal/delchal/next_id?status=9</t>
   </si>
   <si>
-    <t>Negative (Unauthorized) delchal/next_id</t>
+    <t>Negative  delchal/next_id</t>
   </si>
   <si>
     <t>${api.baseUrl}delchal/next_id?status=${status}</t>
@@ -2872,13 +2875,13 @@
     <t>Negative - /delchal/dcid</t>
   </si>
   <si>
-    <t>Negative (Unauthorized) - /DeliveryNote/delchal/dcid</t>
+    <t>Negative  /DeliveryNote/delchal/dcid</t>
   </si>
   <si>
     <t>Negative - /delchal/cancel/dcid</t>
   </si>
   <si>
-    <t>Negative (Unauthorized) - /DeliveryNote/delchal/cancel/dcid</t>
+    <t>Negative  /DeliveryNote/delchal/cancel/dcid</t>
   </si>
   <si>
     <t>${api.baseUrl}delchal/cancel/${cancel_dcid}</t>
@@ -7967,10 +7970,10 @@
     </row>
     <row r="5" s="3" customFormat="1" spans="1:15">
       <c r="A5" s="23" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>5</v>
@@ -7997,7 +8000,7 @@
     <row r="6" s="3" customFormat="1" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>35</v>
@@ -8036,7 +8039,7 @@
         <v>776</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="24"/>
@@ -8063,7 +8066,7 @@
         <v>779</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="24"/>
@@ -8087,7 +8090,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>783</v>
@@ -8104,10 +8107,10 @@
     </row>
     <row r="10" s="4" customFormat="1" ht="15" spans="1:15">
       <c r="A10" s="25" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>5</v>
@@ -8134,7 +8137,7 @@
     <row r="11" s="3" customFormat="1" spans="1:15">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>35</v>
@@ -8161,7 +8164,7 @@
     <row r="12" s="3" customFormat="1" spans="1:15">
       <c r="A12" s="25"/>
       <c r="B12" s="30" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>5</v>
@@ -8186,7 +8189,7 @@
     <row r="13" s="3" customFormat="1" spans="1:15">
       <c r="A13" s="25"/>
       <c r="B13" s="19" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>5</v>
@@ -8213,7 +8216,7 @@
     <row r="14" s="1" customFormat="1" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="26" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>5</v>
@@ -8222,7 +8225,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>783</v>
@@ -8239,10 +8242,10 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:15">
       <c r="A15" s="18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>5</v>
@@ -8254,7 +8257,7 @@
         <v>768</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
@@ -8269,7 +8272,7 @@
     <row r="16" s="1" customFormat="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>35</v>
@@ -8296,7 +8299,7 @@
     <row r="17" s="1" customFormat="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>5</v>
@@ -8321,7 +8324,7 @@
     <row r="18" s="1" customFormat="1" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>5</v>
@@ -8348,7 +8351,7 @@
     <row r="19" s="1" customFormat="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>5</v>
@@ -8357,10 +8360,10 @@
         <v>471</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -8375,7 +8378,7 @@
     <row r="20" s="1" customFormat="1" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>5</v>
@@ -8401,10 +8404,10 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:15">
       <c r="A21" s="25" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>5</v>
@@ -8431,7 +8434,7 @@
     <row r="22" s="1" customFormat="1" spans="1:15">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>35</v>
@@ -8458,7 +8461,7 @@
     <row r="23" s="1" customFormat="1" spans="1:15">
       <c r="A23" s="25"/>
       <c r="B23" s="30" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>5</v>
@@ -8483,7 +8486,7 @@
     <row r="24" s="1" customFormat="1" spans="1:15">
       <c r="A24" s="25"/>
       <c r="B24" s="19" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>5</v>
@@ -8522,7 +8525,7 @@
         <v>779</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="28"/>
@@ -8537,7 +8540,7 @@
     <row r="26" s="1" customFormat="1" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="26" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>5</v>
@@ -8563,10 +8566,10 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:15">
       <c r="A27" s="25" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>5</v>
@@ -8593,7 +8596,7 @@
     <row r="28" s="1" customFormat="1" spans="1:15">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>35</v>
@@ -8620,7 +8623,7 @@
     <row r="29" s="1" customFormat="1" spans="1:15">
       <c r="A29" s="25"/>
       <c r="B29" s="30" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>5</v>
@@ -8645,7 +8648,7 @@
     <row r="30" s="1" customFormat="1" spans="1:15">
       <c r="A30" s="25"/>
       <c r="B30" s="19" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>5</v>
@@ -8672,7 +8675,7 @@
     <row r="31" s="1" customFormat="1" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="26" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>5</v>
@@ -8681,7 +8684,7 @@
         <v>49</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>783</v>
@@ -8698,10 +8701,10 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:15">
       <c r="A32" s="25" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>5</v>
@@ -8728,7 +8731,7 @@
     <row r="33" s="1" customFormat="1" spans="1:15">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>35</v>
@@ -8755,7 +8758,7 @@
     <row r="34" s="1" customFormat="1" spans="1:15">
       <c r="A34" s="25"/>
       <c r="B34" s="30" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>5</v>
@@ -8780,7 +8783,7 @@
     <row r="35" s="1" customFormat="1" spans="1:15">
       <c r="A35" s="25"/>
       <c r="B35" s="19" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>5</v>
@@ -8807,7 +8810,7 @@
     <row r="36" s="1" customFormat="1" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="26" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>5</v>
@@ -8816,7 +8819,7 @@
         <v>49</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>783</v>
@@ -47237,8 +47240,8 @@
   <sheetPr/>
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="13.8"/>
@@ -47376,7 +47379,7 @@
         <v>848</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>799</v>
+        <v>849</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>5</v>
@@ -47402,7 +47405,7 @@
     </row>
     <row r="6" s="3" customFormat="1" spans="2:15">
       <c r="B6" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>35</v>
@@ -47441,7 +47444,7 @@
         <v>776</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="24"/>
@@ -47468,7 +47471,7 @@
         <v>779</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="24"/>
@@ -47492,7 +47495,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>783</v>
@@ -47509,10 +47512,10 @@
     </row>
     <row r="10" s="5" customFormat="1" spans="1:15">
       <c r="A10" s="25" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>5</v>
@@ -47524,7 +47527,7 @@
         <v>768</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="28"/>
@@ -47539,7 +47542,7 @@
     <row r="11" s="5" customFormat="1" spans="1:15">
       <c r="A11" s="25"/>
       <c r="B11" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>35</v>
@@ -47578,7 +47581,7 @@
         <v>776</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="28"/>
@@ -47605,7 +47608,7 @@
         <v>779</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="28"/>
@@ -47646,10 +47649,10 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:15">
       <c r="A15" s="18" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>5</v>
@@ -47661,7 +47664,7 @@
         <v>768</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="24"/>
@@ -47676,7 +47679,7 @@
     <row r="16" s="3" customFormat="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>35</v>
@@ -47715,7 +47718,7 @@
         <v>776</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="24"/>
@@ -47730,7 +47733,7 @@
     <row r="18" s="3" customFormat="1" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>5</v>
@@ -47739,10 +47742,10 @@
         <v>471</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="24"/>
@@ -47757,7 +47760,7 @@
     <row r="19" s="3" customFormat="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>5</v>
@@ -47766,10 +47769,10 @@
         <v>471</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G19" s="19"/>
       <c r="H19" s="24"/>
@@ -47796,7 +47799,7 @@
         <v>779</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="24"/>
@@ -47820,7 +47823,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>783</v>
@@ -47837,10 +47840,10 @@
     </row>
     <row r="22" s="3" customFormat="1" spans="1:15">
       <c r="A22" s="18" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>5</v>
@@ -47852,7 +47855,7 @@
         <v>768</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G22" s="19"/>
       <c r="H22" s="24"/>
@@ -47867,7 +47870,7 @@
     <row r="23" s="3" customFormat="1" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>35</v>
@@ -47906,7 +47909,7 @@
         <v>776</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="24"/>
@@ -47933,7 +47936,7 @@
         <v>779</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="24"/>
@@ -47957,7 +47960,7 @@
         <v>49</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>783</v>
@@ -47974,10 +47977,10 @@
     </row>
     <row r="27" s="5" customFormat="1" spans="1:15">
       <c r="A27" s="25" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>5</v>
@@ -48004,7 +48007,7 @@
     <row r="28" s="5" customFormat="1" spans="1:15">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>35</v>
@@ -48043,7 +48046,7 @@
         <v>776</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G29" s="26"/>
       <c r="H29" s="28"/>
@@ -48070,7 +48073,7 @@
         <v>779</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="28"/>
@@ -48111,10 +48114,10 @@
     </row>
     <row r="32" s="5" customFormat="1" spans="1:15">
       <c r="A32" s="25" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>5</v>
@@ -48126,7 +48129,7 @@
         <v>768</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G32" s="26"/>
       <c r="H32" s="28"/>
@@ -48141,7 +48144,7 @@
     <row r="33" s="5" customFormat="1" spans="1:15">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>35</v>
@@ -48180,7 +48183,7 @@
         <v>776</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G34" s="26"/>
       <c r="H34" s="28"/>
@@ -48207,7 +48210,7 @@
         <v>779</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G35" s="26"/>
       <c r="H35" s="28"/>
@@ -48283,7 +48286,7 @@
     <row r="39" s="1" customFormat="1" ht="409.5" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="92" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="19"/>
@@ -50402,10 +50405,10 @@
     </row>
     <row r="5" s="75" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="18" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>5</v>
@@ -50432,7 +50435,7 @@
     <row r="6" s="74" customFormat="1" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>5</v>
@@ -50444,7 +50447,7 @@
         <v>802</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -50459,7 +50462,7 @@
     <row r="7" s="75" customFormat="1" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>35</v>
@@ -50498,7 +50501,7 @@
         <v>776</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="24"/>
@@ -50513,7 +50516,7 @@
     <row r="9" s="75" customFormat="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -50522,10 +50525,10 @@
         <v>447</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="24"/>
@@ -50566,10 +50569,10 @@
     </row>
     <row r="11" s="75" customFormat="1" spans="1:15">
       <c r="A11" s="18" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>5</v>
@@ -50596,7 +50599,7 @@
     <row r="12" s="74" customFormat="1" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>5</v>
@@ -50621,7 +50624,7 @@
     <row r="13" s="75" customFormat="1" ht="17" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>35</v>
@@ -50660,7 +50663,7 @@
         <v>776</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="24"/>
@@ -50675,7 +50678,7 @@
     <row r="15" s="75" customFormat="1" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>5</v>
@@ -50684,10 +50687,10 @@
         <v>447</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="24"/>
@@ -50728,10 +50731,10 @@
     </row>
     <row r="17" s="75" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="18" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>5</v>
@@ -50758,7 +50761,7 @@
     <row r="18" s="74" customFormat="1" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>5</v>
@@ -50770,7 +50773,7 @@
         <v>802</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -50785,7 +50788,7 @@
     <row r="19" s="75" customFormat="1" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>35</v>
@@ -50824,7 +50827,7 @@
         <v>776</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G20" s="19"/>
       <c r="H20" s="24"/>
@@ -50839,7 +50842,7 @@
     <row r="21" s="75" customFormat="1" spans="1:15">
       <c r="A21" s="18"/>
       <c r="B21" s="19" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>5</v>
@@ -50848,10 +50851,10 @@
         <v>447</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="24"/>
@@ -50892,10 +50895,10 @@
     </row>
     <row r="23" s="76" customFormat="1" spans="1:15">
       <c r="A23" s="86" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>5</v>
@@ -50904,7 +50907,7 @@
         <v>471</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>782</v>
@@ -50922,7 +50925,7 @@
     <row r="24" s="76" customFormat="1" spans="1:15">
       <c r="A24" s="86"/>
       <c r="B24" s="87" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>5</v>
@@ -50949,7 +50952,7 @@
     <row r="25" s="76" customFormat="1" spans="1:15">
       <c r="A25" s="86"/>
       <c r="B25" s="87" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>5</v>
@@ -50958,10 +50961,10 @@
         <v>49</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G25" s="19"/>
       <c r="H25" s="24"/>
@@ -50976,7 +50979,7 @@
     <row r="26" s="76" customFormat="1" spans="1:15">
       <c r="A26" s="86"/>
       <c r="B26" s="87" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>5</v>
@@ -50985,7 +50988,7 @@
         <v>536</v>
       </c>
       <c r="E26" s="88" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="19"/>
@@ -51001,7 +51004,7 @@
     <row r="27" s="76" customFormat="1" spans="1:15">
       <c r="A27" s="86"/>
       <c r="B27" s="87" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>5</v>
@@ -51010,10 +51013,10 @@
         <v>471</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G27" s="19"/>
       <c r="H27" s="24"/>
@@ -51028,7 +51031,7 @@
     <row r="28" s="76" customFormat="1" spans="1:15">
       <c r="A28" s="86"/>
       <c r="B28" s="87" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>5</v>
@@ -51037,10 +51040,10 @@
         <v>471</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G28" s="19"/>
       <c r="H28" s="24"/>
@@ -51055,7 +51058,7 @@
     <row r="29" s="76" customFormat="1" spans="1:15">
       <c r="A29" s="86"/>
       <c r="B29" s="87" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>5</v>
@@ -51064,10 +51067,10 @@
         <v>471</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G29" s="19"/>
       <c r="H29" s="24"/>
@@ -51082,7 +51085,7 @@
     <row r="30" s="76" customFormat="1" spans="1:15">
       <c r="A30" s="86"/>
       <c r="B30" s="87" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>5</v>
@@ -51091,10 +51094,10 @@
         <v>471</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G30" s="19"/>
       <c r="H30" s="24"/>
@@ -51109,7 +51112,7 @@
     <row r="31" s="76" customFormat="1" spans="1:15">
       <c r="A31" s="86"/>
       <c r="B31" s="87" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>5</v>
@@ -51118,10 +51121,10 @@
         <v>471</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G31" s="19"/>
       <c r="H31" s="24"/>
@@ -51136,7 +51139,7 @@
     <row r="32" s="76" customFormat="1" spans="1:15">
       <c r="A32" s="86"/>
       <c r="B32" s="88" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>5</v>
@@ -51145,7 +51148,7 @@
         <v>471</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>828</v>
@@ -51163,7 +51166,7 @@
     <row r="33" s="76" customFormat="1" spans="1:15">
       <c r="A33" s="86"/>
       <c r="B33" s="87" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>5</v>
@@ -51175,7 +51178,7 @@
         <v>768</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G33" s="19"/>
       <c r="H33" s="24"/>
@@ -51190,7 +51193,7 @@
     <row r="34" s="77" customFormat="1" ht="15" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>5</v>
@@ -51202,7 +51205,7 @@
         <v>802</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
@@ -51217,7 +51220,7 @@
     <row r="35" spans="1:15">
       <c r="A35" s="86"/>
       <c r="B35" s="87" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>35</v>
@@ -51246,7 +51249,7 @@
     <row r="36" spans="1:15">
       <c r="A36" s="86"/>
       <c r="B36" s="87" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C36" s="19" t="s">
         <v>5</v>
@@ -51271,7 +51274,7 @@
     <row r="37" spans="1:15">
       <c r="A37" s="86"/>
       <c r="B37" s="87" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>5</v>
@@ -51298,7 +51301,7 @@
     <row r="38" spans="1:15">
       <c r="A38" s="86"/>
       <c r="B38" s="88" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>5</v>
@@ -51307,7 +51310,7 @@
         <v>49</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>783</v>
@@ -51325,7 +51328,7 @@
     <row r="39" spans="1:15">
       <c r="A39" s="86"/>
       <c r="B39" s="88" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>20</v>
@@ -51334,10 +51337,10 @@
         <v>302</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
@@ -54821,7 +54824,7 @@
     </row>
     <row r="5" s="47" customFormat="1" spans="1:15">
       <c r="A5" s="58" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>807</v>
@@ -54851,7 +54854,7 @@
     <row r="6" s="48" customFormat="1" spans="1:15">
       <c r="A6" s="58"/>
       <c r="B6" s="64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>5</v>
@@ -54876,7 +54879,7 @@
     <row r="7" s="47" customFormat="1" spans="1:15">
       <c r="A7" s="58"/>
       <c r="B7" s="59" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>35</v>
@@ -54917,7 +54920,7 @@
         <v>776</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G8" s="59"/>
       <c r="H8" s="63"/>
@@ -54944,7 +54947,7 @@
         <v>779</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G9" s="59"/>
       <c r="H9" s="63"/>
@@ -54968,7 +54971,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F10" s="59" t="s">
         <v>783</v>
@@ -54985,10 +54988,10 @@
     </row>
     <row r="11" s="48" customFormat="1" spans="1:15">
       <c r="A11" s="58" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>5</v>
@@ -54997,7 +55000,7 @@
         <v>471</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F11" s="59" t="s">
         <v>782</v>
@@ -55015,7 +55018,7 @@
     <row r="12" s="48" customFormat="1" spans="1:15">
       <c r="A12" s="58"/>
       <c r="B12" s="59" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>5</v>
@@ -55027,7 +55030,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
@@ -55042,7 +55045,7 @@
     <row r="13" s="48" customFormat="1" spans="1:15">
       <c r="A13" s="58"/>
       <c r="B13" s="59" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>5</v>
@@ -55051,10 +55054,10 @@
         <v>49</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
@@ -55069,7 +55072,7 @@
     <row r="14" s="48" customFormat="1" spans="1:15">
       <c r="A14" s="58"/>
       <c r="B14" s="59" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>5</v>
@@ -55078,10 +55081,10 @@
         <v>471</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
@@ -55096,7 +55099,7 @@
     <row r="15" s="48" customFormat="1" spans="1:15">
       <c r="A15" s="58"/>
       <c r="B15" s="59" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C15" s="65" t="s">
         <v>5</v>
@@ -55105,10 +55108,10 @@
         <v>471</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
@@ -55123,7 +55126,7 @@
     <row r="16" s="48" customFormat="1" spans="1:15">
       <c r="A16" s="58"/>
       <c r="B16" s="59" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C16" s="65" t="s">
         <v>5</v>
@@ -55132,10 +55135,10 @@
         <v>471</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
@@ -55150,7 +55153,7 @@
     <row r="17" s="48" customFormat="1" spans="1:15">
       <c r="A17" s="58"/>
       <c r="B17" s="59" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>5</v>
@@ -55159,10 +55162,10 @@
         <v>471</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
@@ -55177,7 +55180,7 @@
     <row r="18" s="48" customFormat="1" spans="1:15">
       <c r="A18" s="58"/>
       <c r="B18" s="59" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>5</v>
@@ -55186,10 +55189,10 @@
         <v>471</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
@@ -55204,7 +55207,7 @@
     <row r="19" s="48" customFormat="1" spans="1:15">
       <c r="A19" s="58"/>
       <c r="B19" s="59" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>5</v>
@@ -55213,10 +55216,10 @@
         <v>471</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
@@ -55231,7 +55234,7 @@
     <row r="20" s="48" customFormat="1" spans="1:15">
       <c r="A20" s="58"/>
       <c r="B20" s="64" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>5</v>
@@ -55240,7 +55243,7 @@
         <v>471</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F20" s="64" t="s">
         <v>828</v>
@@ -55258,7 +55261,7 @@
     <row r="21" s="48" customFormat="1" spans="1:15">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>5</v>
@@ -55405,7 +55408,7 @@
         <v>779</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="G26" s="59"/>
       <c r="H26" s="59"/>
@@ -55429,7 +55432,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F27" s="64" t="s">
         <v>783</v>
@@ -55446,7 +55449,7 @@
     </row>
     <row r="28" s="47" customFormat="1" spans="1:15">
       <c r="A28" s="58" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B28" s="59" t="s">
         <v>807</v>
@@ -55476,7 +55479,7 @@
     <row r="29" s="48" customFormat="1" spans="1:15">
       <c r="A29" s="58"/>
       <c r="B29" s="64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C29" s="51" t="s">
         <v>5</v>
@@ -55488,7 +55491,7 @@
         <v>802</v>
       </c>
       <c r="F29" s="59" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="G29" s="59"/>
       <c r="H29" s="59"/>
@@ -55503,7 +55506,7 @@
     <row r="30" s="47" customFormat="1" spans="1:15">
       <c r="A30" s="58"/>
       <c r="B30" s="59" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>35</v>
@@ -55544,7 +55547,7 @@
         <v>776</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G31" s="59"/>
       <c r="H31" s="63"/>
@@ -55571,7 +55574,7 @@
         <v>779</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G32" s="59"/>
       <c r="H32" s="63"/>
@@ -55595,7 +55598,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F33" s="59" t="s">
         <v>783</v>
@@ -55612,7 +55615,7 @@
     </row>
     <row r="34" s="47" customFormat="1" spans="1:15">
       <c r="A34" s="58" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B34" s="59" t="s">
         <v>807</v>
@@ -55642,7 +55645,7 @@
     <row r="35" s="48" customFormat="1" spans="1:15">
       <c r="A35" s="58"/>
       <c r="B35" s="64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C35" s="51" t="s">
         <v>5</v>
@@ -55654,7 +55657,7 @@
         <v>802</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G35" s="59"/>
       <c r="H35" s="59"/>
@@ -55669,7 +55672,7 @@
     <row r="36" s="47" customFormat="1" spans="1:15">
       <c r="A36" s="58"/>
       <c r="B36" s="59" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>35</v>
@@ -55710,7 +55713,7 @@
         <v>776</v>
       </c>
       <c r="F37" s="59" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G37" s="59"/>
       <c r="H37" s="63"/>
@@ -55737,7 +55740,7 @@
         <v>779</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G38" s="59"/>
       <c r="H38" s="63"/>
@@ -55761,7 +55764,7 @@
         <v>49</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F39" s="59" t="s">
         <v>783</v>
@@ -55778,7 +55781,7 @@
     </row>
     <row r="40" s="47" customFormat="1" spans="1:15">
       <c r="A40" s="58" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B40" s="59" t="s">
         <v>807</v>
@@ -55808,7 +55811,7 @@
     <row r="41" s="48" customFormat="1" spans="1:15">
       <c r="A41" s="58"/>
       <c r="B41" s="64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C41" s="51" t="s">
         <v>5</v>
@@ -55820,7 +55823,7 @@
         <v>802</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
@@ -55835,7 +55838,7 @@
     <row r="42" s="47" customFormat="1" spans="1:15">
       <c r="A42" s="58"/>
       <c r="B42" s="59" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>35</v>
@@ -55876,7 +55879,7 @@
         <v>776</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G43" s="59"/>
       <c r="H43" s="63"/>
@@ -55903,7 +55906,7 @@
         <v>779</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G44" s="59"/>
       <c r="H44" s="63"/>
@@ -55944,7 +55947,7 @@
     </row>
     <row r="46" s="47" customFormat="1" spans="1:15">
       <c r="A46" s="58" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B46" s="59" t="s">
         <v>807</v>
@@ -55974,7 +55977,7 @@
     <row r="47" s="48" customFormat="1" spans="1:15">
       <c r="A47" s="58"/>
       <c r="B47" s="64" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C47" s="51" t="s">
         <v>5</v>
@@ -55986,7 +55989,7 @@
         <v>802</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G47" s="59"/>
       <c r="H47" s="59"/>
@@ -56001,7 +56004,7 @@
     <row r="48" s="47" customFormat="1" spans="1:15">
       <c r="A48" s="58"/>
       <c r="B48" s="59" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>35</v>
@@ -56042,7 +56045,7 @@
         <v>776</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G49" s="59"/>
       <c r="H49" s="63"/>
@@ -56069,7 +56072,7 @@
         <v>779</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G50" s="59"/>
       <c r="H50" s="63"/>

--- a/tests/artifact/script/DeliveryNote.xlsx
+++ b/tests/artifact/script/DeliveryNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -35067,8 +35067,8 @@
   <sheetPr/>
   <dimension ref="A1:O147"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="26" customHeight="1"/>
@@ -50593,7 +50593,7 @@
   <sheetPr/>
   <dimension ref="A1:O209"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -55055,7 +55055,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>

--- a/tests/artifact/script/DeliveryNote.xlsx
+++ b/tests/artifact/script/DeliveryNote.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,7 +60,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2609,13 +2622,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3194,16 +3207,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3457,7 +3470,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3523,6 +3536,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3532,10 +3549,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -4008,7 +4021,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6688,7 +6701,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="38" style="66" customWidth="1"/>
     <col min="2" max="2" width="44.125" style="67" customWidth="1"/>
@@ -6738,7 +6751,7 @@
       <c r="N1" s="14"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" s="62" customFormat="1" ht="15.15" spans="1:15">
+    <row r="2" s="62" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="71" t="s">
         <v>733</v>
       </c>
@@ -23267,7 +23280,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" s="62" customFormat="1" ht="28.8" spans="1:15">
+    <row r="8" s="62" customFormat="1" ht="29" spans="1:15">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="25" t="s">
@@ -23342,7 +23355,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" s="64" customFormat="1" ht="15.6" spans="1:15">
+    <row r="11" s="64" customFormat="1" ht="15.5" spans="1:15">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="25"/>
@@ -23359,7 +23372,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" s="64" customFormat="1" ht="15.6" spans="1:15">
+    <row r="12" s="64" customFormat="1" ht="15.5" spans="1:15">
       <c r="A12" s="75"/>
       <c r="B12" s="76"/>
       <c r="C12" s="25"/>
@@ -23376,7 +23389,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" customFormat="1" ht="15.6" spans="1:15">
+    <row r="13" customFormat="1" ht="15.5" spans="1:15">
       <c r="A13" s="75"/>
       <c r="B13" s="76"/>
       <c r="C13" s="28"/>
@@ -23446,7 +23459,7 @@
     <row r="17" s="65" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="77"/>
       <c r="B17" s="78"/>
-      <c r="C17" s="57"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
       <c r="F17" s="82"/>
@@ -26589,11 +26602,11 @@
   <sheetPr/>
   <dimension ref="A1:O204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.3" style="7" customWidth="1"/>
@@ -27029,7 +27042,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="20"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:15">
+    <row r="17" s="1" customFormat="1" ht="98" customHeight="1" spans="1:15">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="28" t="s">
@@ -28756,7 +28769,7 @@
       <c r="B85" s="24" t="s">
         <v>814</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="54" t="s">
         <v>35</v>
       </c>
       <c r="D85" s="31" t="s">
@@ -31380,13 +31393,13 @@
   <sheetPr/>
   <dimension ref="A1:O211"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" style="6" customWidth="1"/>
     <col min="2" max="2" width="41.6666666666667" style="7" customWidth="1"/>
@@ -31727,16 +31740,16 @@
       <c r="B13" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="31" t="s">
         <v>752</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="31" t="s">
         <v>754</v>
       </c>
       <c r="G13" s="27"/>
@@ -31938,7 +31951,7 @@
         <v>107</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>815</v>
+        <v>762</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -32003,11 +32016,11 @@
       <c r="O24" s="20"/>
     </row>
     <row r="25" s="4" customFormat="1" spans="1:15">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="46"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="29"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -32020,12 +32033,12 @@
       <c r="O25" s="46"/>
     </row>
     <row r="26" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="46"/>
-      <c r="C26" s="57"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
-      <c r="F26" s="56"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
@@ -32037,12 +32050,12 @@
       <c r="O26" s="46"/>
     </row>
     <row r="27" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="46"/>
-      <c r="C27" s="57"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="56"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
@@ -32054,9 +32067,9 @@
       <c r="O27" s="46"/>
     </row>
     <row r="28" s="4" customFormat="1" spans="1:15">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="46"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
@@ -32071,9 +32084,9 @@
       <c r="O28" s="46"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="202" customHeight="1" spans="1:15">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="46"/>
-      <c r="C29" s="57"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
@@ -32088,9 +32101,9 @@
       <c r="O29" s="46"/>
     </row>
     <row r="30" s="4" customFormat="1" ht="31" customHeight="1" spans="1:15">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="46"/>
-      <c r="C30" s="57"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
@@ -35337,7 +35350,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.3" style="7" customWidth="1"/>
@@ -39434,7 +39447,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20" style="6" customWidth="1"/>
     <col min="2" max="2" width="32.3" style="7" customWidth="1"/>
